--- a/Indicators/Indicators_Process_B_7_4_and_O_8_2/files/ЛИТКОР-Л_газ/results.xlsx
+++ b/Indicators/Indicators_Process_B_7_4_and_O_8_2/files/ЛИТКОР-Л_газ/results.xlsx
@@ -390,7 +390,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D356"/>
+  <dimension ref="A1:D360"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -5324,6 +5324,50 @@
       </c>
       <c r="D356">
         <v>31.4</v>
+      </c>
+    </row>
+    <row r="357" spans="1:4">
+      <c r="A357" s="1">
+        <v>355</v>
+      </c>
+      <c r="B357">
+        <v>30.8</v>
+      </c>
+      <c r="D357">
+        <v>31.3</v>
+      </c>
+    </row>
+    <row r="358" spans="1:4">
+      <c r="A358" s="1">
+        <v>356</v>
+      </c>
+      <c r="B358">
+        <v>30.4</v>
+      </c>
+      <c r="D358">
+        <v>30.8</v>
+      </c>
+    </row>
+    <row r="359" spans="1:4">
+      <c r="A359" s="1">
+        <v>357</v>
+      </c>
+      <c r="B359">
+        <v>30.9</v>
+      </c>
+      <c r="D359">
+        <v>31.3</v>
+      </c>
+    </row>
+    <row r="360" spans="1:4">
+      <c r="A360" s="1">
+        <v>358</v>
+      </c>
+      <c r="B360">
+        <v>30.8</v>
+      </c>
+      <c r="D360">
+        <v>30.8</v>
       </c>
     </row>
   </sheetData>
@@ -5349,7 +5393,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>355</v>
+        <v>359</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -5365,7 +5409,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>355</v>
+        <v>359</v>
       </c>
     </row>
   </sheetData>
@@ -5391,7 +5435,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>27.69126760563379</v>
+        <v>27.72506963788299</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -5407,7 +5451,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>26.28281690140845</v>
+        <v>26.3359331476323</v>
       </c>
     </row>
   </sheetData>
@@ -5529,7 +5573,7 @@
         <v>0.9387060861154968</v>
       </c>
       <c r="D2">
-        <v>0.8964317510045493</v>
+        <v>0.8973295970606869</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -5551,7 +5595,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.8964317510045493</v>
+        <v>0.8973295970606869</v>
       </c>
       <c r="C4">
         <v>0.8990578364015775</v>
@@ -5583,7 +5627,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>3.468503531815823</v>
+        <v>3.463841303141544</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -5599,7 +5643,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>4.573099056493801</v>
+        <v>4.575080199680344</v>
       </c>
     </row>
   </sheetData>

--- a/Indicators/Indicators_Process_B_7_4_and_O_8_2/files/ЛИТКОР-Л_газ/results.xlsx
+++ b/Indicators/Indicators_Process_B_7_4_and_O_8_2/files/ЛИТКОР-Л_газ/results.xlsx
@@ -390,7 +390,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D360"/>
+  <dimension ref="A1:D363"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -5367,6 +5367,39 @@
         <v>30.8</v>
       </c>
       <c r="D360">
+        <v>30.8</v>
+      </c>
+    </row>
+    <row r="361" spans="1:4">
+      <c r="A361" s="1">
+        <v>359</v>
+      </c>
+      <c r="B361">
+        <v>32.8</v>
+      </c>
+      <c r="D361">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="362" spans="1:4">
+      <c r="A362" s="1">
+        <v>360</v>
+      </c>
+      <c r="B362">
+        <v>28.8</v>
+      </c>
+      <c r="D362">
+        <v>29.6</v>
+      </c>
+    </row>
+    <row r="363" spans="1:4">
+      <c r="A363" s="1">
+        <v>361</v>
+      </c>
+      <c r="B363">
+        <v>30.4</v>
+      </c>
+      <c r="D363">
         <v>30.8</v>
       </c>
     </row>
@@ -5393,7 +5426,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>359</v>
+        <v>362</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -5409,7 +5442,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>359</v>
+        <v>362</v>
       </c>
     </row>
   </sheetData>
@@ -5435,7 +5468,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>27.72506963788299</v>
+        <v>27.74944751381215</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -5443,7 +5476,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>26.3439169139466</v>
+        <v>26.34391691394659</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -5451,7 +5484,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>26.3359331476323</v>
+        <v>26.37569060773481</v>
       </c>
     </row>
   </sheetData>
@@ -5570,10 +5603,10 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>0.9387060861154968</v>
+        <v>0.9387060861154957</v>
       </c>
       <c r="D2">
-        <v>0.8973295970606869</v>
+        <v>0.8979553637360294</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -5581,13 +5614,13 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.9387060861154968</v>
+        <v>0.9387060861154957</v>
       </c>
       <c r="C3">
         <v>1</v>
       </c>
       <c r="D3">
-        <v>0.8990578364015775</v>
+        <v>0.8990578364015769</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -5595,10 +5628,10 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.8973295970606869</v>
+        <v>0.8979553637360294</v>
       </c>
       <c r="C4">
-        <v>0.8990578364015775</v>
+        <v>0.8990578364015769</v>
       </c>
       <c r="D4">
         <v>1</v>
@@ -5627,7 +5660,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>3.463841303141544</v>
+        <v>3.462983874008367</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -5635,7 +5668,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>3.645622795148274</v>
+        <v>3.645622795148276</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -5643,7 +5676,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>4.575080199680344</v>
+        <v>4.578598316202283</v>
       </c>
     </row>
   </sheetData>
@@ -5653,7 +5686,7 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -5678,6 +5711,14 @@
         <v>28</v>
       </c>
     </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>30.4</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Indicators/Indicators_Process_B_7_4_and_O_8_2/files/ЛИТКОР-Л_газ/results.xlsx
+++ b/Indicators/Indicators_Process_B_7_4_and_O_8_2/files/ЛИТКОР-Л_газ/results.xlsx
@@ -390,7 +390,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D363"/>
+  <dimension ref="A1:D383"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -5401,6 +5401,226 @@
       </c>
       <c r="D363">
         <v>30.8</v>
+      </c>
+    </row>
+    <row r="364" spans="1:4">
+      <c r="A364" s="1">
+        <v>362</v>
+      </c>
+      <c r="B364">
+        <v>29.8</v>
+      </c>
+      <c r="D364">
+        <v>30.4</v>
+      </c>
+    </row>
+    <row r="365" spans="1:4">
+      <c r="A365" s="1">
+        <v>363</v>
+      </c>
+      <c r="B365">
+        <v>31</v>
+      </c>
+      <c r="D365">
+        <v>31.5</v>
+      </c>
+    </row>
+    <row r="366" spans="1:4">
+      <c r="A366" s="1">
+        <v>364</v>
+      </c>
+      <c r="B366">
+        <v>31.2</v>
+      </c>
+      <c r="D366">
+        <v>31.4</v>
+      </c>
+    </row>
+    <row r="367" spans="1:4">
+      <c r="A367" s="1">
+        <v>365</v>
+      </c>
+      <c r="B367">
+        <v>31.3</v>
+      </c>
+      <c r="D367">
+        <v>31.5</v>
+      </c>
+    </row>
+    <row r="368" spans="1:4">
+      <c r="A368" s="1">
+        <v>366</v>
+      </c>
+      <c r="B368">
+        <v>31.4</v>
+      </c>
+      <c r="D368">
+        <v>31.6</v>
+      </c>
+    </row>
+    <row r="369" spans="1:4">
+      <c r="A369" s="1">
+        <v>367</v>
+      </c>
+      <c r="B369">
+        <v>31.8</v>
+      </c>
+      <c r="D369">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="370" spans="1:4">
+      <c r="A370" s="1">
+        <v>368</v>
+      </c>
+      <c r="B370">
+        <v>29.8</v>
+      </c>
+      <c r="D370">
+        <v>30.1</v>
+      </c>
+    </row>
+    <row r="371" spans="1:4">
+      <c r="A371" s="1">
+        <v>369</v>
+      </c>
+      <c r="B371">
+        <v>29.8</v>
+      </c>
+      <c r="D371">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="372" spans="1:4">
+      <c r="A372" s="1">
+        <v>370</v>
+      </c>
+      <c r="B372">
+        <v>28.3</v>
+      </c>
+      <c r="D372">
+        <v>28.5</v>
+      </c>
+    </row>
+    <row r="373" spans="1:4">
+      <c r="A373" s="1">
+        <v>371</v>
+      </c>
+      <c r="B373">
+        <v>28.3</v>
+      </c>
+      <c r="D373">
+        <v>28.6</v>
+      </c>
+    </row>
+    <row r="374" spans="1:4">
+      <c r="A374" s="1">
+        <v>372</v>
+      </c>
+      <c r="B374">
+        <v>31.3</v>
+      </c>
+      <c r="D374">
+        <v>31.9</v>
+      </c>
+    </row>
+    <row r="375" spans="1:4">
+      <c r="A375" s="1">
+        <v>373</v>
+      </c>
+      <c r="B375">
+        <v>31.8</v>
+      </c>
+      <c r="D375">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="376" spans="1:4">
+      <c r="A376" s="1">
+        <v>374</v>
+      </c>
+      <c r="B376">
+        <v>29.8</v>
+      </c>
+      <c r="D376">
+        <v>29.6</v>
+      </c>
+    </row>
+    <row r="377" spans="1:4">
+      <c r="A377" s="1">
+        <v>375</v>
+      </c>
+      <c r="B377">
+        <v>28.3</v>
+      </c>
+      <c r="D377">
+        <v>28.8</v>
+      </c>
+    </row>
+    <row r="378" spans="1:4">
+      <c r="A378" s="1">
+        <v>376</v>
+      </c>
+      <c r="B378">
+        <v>30.4</v>
+      </c>
+      <c r="D378">
+        <v>30.8</v>
+      </c>
+    </row>
+    <row r="379" spans="1:4">
+      <c r="A379" s="1">
+        <v>377</v>
+      </c>
+      <c r="B379">
+        <v>27.8</v>
+      </c>
+      <c r="D379">
+        <v>28.2</v>
+      </c>
+    </row>
+    <row r="380" spans="1:4">
+      <c r="A380" s="1">
+        <v>378</v>
+      </c>
+      <c r="B380">
+        <v>30.4</v>
+      </c>
+      <c r="D380">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="381" spans="1:4">
+      <c r="A381" s="1">
+        <v>379</v>
+      </c>
+      <c r="B381">
+        <v>27.4</v>
+      </c>
+      <c r="D381">
+        <v>27.8</v>
+      </c>
+    </row>
+    <row r="382" spans="1:4">
+      <c r="A382" s="1">
+        <v>380</v>
+      </c>
+      <c r="B382">
+        <v>28</v>
+      </c>
+      <c r="D382">
+        <v>27.8</v>
+      </c>
+    </row>
+    <row r="383" spans="1:4">
+      <c r="A383" s="1">
+        <v>381</v>
+      </c>
+      <c r="B383">
+        <v>29.9</v>
+      </c>
+      <c r="D383">
+        <v>29.4</v>
       </c>
     </row>
   </sheetData>
@@ -5426,7 +5646,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>362</v>
+        <v>382</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -5442,7 +5662,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>362</v>
+        <v>382</v>
       </c>
     </row>
   </sheetData>
@@ -5468,7 +5688,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>27.74944751381215</v>
+        <v>27.86151832460733</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -5484,7 +5704,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>26.37569060773481</v>
+        <v>26.57041884816754</v>
       </c>
     </row>
   </sheetData>
@@ -5606,7 +5826,7 @@
         <v>0.9387060861154957</v>
       </c>
       <c r="D2">
-        <v>0.8979553637360294</v>
+        <v>0.9000362665471334</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -5628,7 +5848,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.8979553637360294</v>
+        <v>0.9000362665471334</v>
       </c>
       <c r="C4">
         <v>0.8990578364015769</v>
@@ -5660,7 +5880,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>3.462983874008367</v>
+        <v>3.419422799510987</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -5676,7 +5896,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>4.578598316202283</v>
+        <v>4.545014208428222</v>
       </c>
     </row>
   </sheetData>
@@ -5686,7 +5906,7 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -5705,18 +5925,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>28.4</v>
+        <v>30.4</v>
       </c>
       <c r="C2">
         <v>28</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" s="1">
-        <v>1</v>
-      </c>
-      <c r="B3">
-        <v>30.4</v>
       </c>
     </row>
   </sheetData>
